--- a/out/stats/potential_pos_overall_hoho_stats.xlsx
+++ b/out/stats/potential_pos_overall_hoho_stats.xlsx
@@ -567,7 +567,7 @@
         <v>1769.675625</v>
       </c>
       <c r="G3">
-        <v>782.1442105263159</v>
+        <v>782.1442105263158</v>
       </c>
       <c r="H3">
         <v>3772.066860465116</v>
@@ -579,10 +579,10 @@
         <v>3121.69501843318</v>
       </c>
       <c r="K3">
-        <v>827.7237307692308</v>
+        <v>827.7237307692307</v>
       </c>
       <c r="L3">
-        <v>1780.247348484849</v>
+        <v>1780.247348484848</v>
       </c>
       <c r="M3">
         <v>1238.333333333333</v>
@@ -623,13 +623,13 @@
         <v>266.6833328125326</v>
       </c>
       <c r="J4">
-        <v>3015.111641168736</v>
+        <v>3015.111641168737</v>
       </c>
       <c r="K4">
         <v>521.2871024674715</v>
       </c>
       <c r="L4">
-        <v>826.3535846670986</v>
+        <v>826.3535846670987</v>
       </c>
       <c r="M4">
         <v>1485.213228238065</v>
@@ -997,19 +997,19 @@
         <v>232.4716420454545</v>
       </c>
       <c r="F3">
-        <v>2651.285574193548</v>
+        <v>2651.285574193549</v>
       </c>
       <c r="G3">
         <v>1525.454350029744</v>
       </c>
       <c r="H3">
-        <v>3928.734208579882</v>
+        <v>3928.734208579881</v>
       </c>
       <c r="I3">
-        <v>2803.199866842106</v>
+        <v>2803.199866842105</v>
       </c>
       <c r="J3">
-        <v>708.71127171875</v>
+        <v>708.7112717187499</v>
       </c>
       <c r="K3">
         <v>845.25</v>
@@ -1032,7 +1032,7 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>319.7933406009328</v>
+        <v>319.7933406009329</v>
       </c>
       <c r="C4">
         <v>702.1920385030138</v>
@@ -1056,13 +1056,13 @@
         <v>2448.299764329014</v>
       </c>
       <c r="J4">
-        <v>243.773270870237</v>
+        <v>243.7732708702369</v>
       </c>
       <c r="K4">
         <v>637.1736419532748</v>
       </c>
       <c r="L4">
-        <v>746.8624560530882</v>
+        <v>746.8624560530881</v>
       </c>
       <c r="M4">
         <v>2239.244143306695</v>
@@ -1755,7 +1755,7 @@
         <v>2872.050558138752</v>
       </c>
       <c r="J3">
-        <v>641.0864539655171</v>
+        <v>641.0864539655172</v>
       </c>
       <c r="K3">
         <v>2297.5</v>
@@ -2110,7 +2110,7 @@
         <v>7400.962200000001</v>
       </c>
       <c r="F3">
-        <v>783.2310413888888</v>
+        <v>783.2310413888889</v>
       </c>
       <c r="G3">
         <v>1080.135583333333</v>
@@ -2154,13 +2154,13 @@
         <v>2046.869954794699</v>
       </c>
       <c r="I4">
-        <v>76.62615906691569</v>
+        <v>76.62615906691568</v>
       </c>
       <c r="J4">
         <v>896.0181158616668</v>
       </c>
       <c r="K4">
-        <v>42.78507696375958</v>
+        <v>42.78507696375959</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2435,7 +2435,7 @@
         <v>8720.513599999998</v>
       </c>
       <c r="F3">
-        <v>742.7190909722224</v>
+        <v>742.7190909722223</v>
       </c>
       <c r="G3">
         <v>1080.135583333333</v>
@@ -2479,10 +2479,10 @@
         <v>1751.210961324354</v>
       </c>
       <c r="I4">
-        <v>71.68253590130823</v>
+        <v>71.68253590130821</v>
       </c>
       <c r="J4">
-        <v>974.1592306170448</v>
+        <v>974.159230617045</v>
       </c>
       <c r="K4">
         <v>40.02474941771057</v>
@@ -3094,13 +3094,13 @@
         <v>1967.458957249089</v>
       </c>
       <c r="I3">
-        <v>481.9480360344828</v>
+        <v>481.9480360344827</v>
       </c>
       <c r="J3">
         <v>744.8960428017243</v>
       </c>
       <c r="K3">
-        <v>2158.844207407407</v>
+        <v>2158.844207407408</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3123,7 +3123,7 @@
         <v>565.9618643404483</v>
       </c>
       <c r="G4">
-        <v>278.6872317724674</v>
+        <v>278.6872317724675</v>
       </c>
       <c r="H4">
         <v>1563.171707362417</v>
